--- a/excel/5.xlsx
+++ b/excel/5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK91"/>
+  <dimension ref="A1:AK90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1093,7 +1093,7 @@
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>运输项目管理与评估孙彦明,张传明 (2-5,7-11周) 交通运输2019-1-2</t>
+          <t>运输项目管理与评估孙彦明 (2-5,7-11周) 交通运输2019-1-2</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr"/>
@@ -1168,7 +1168,7 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-10周) 金属材料工程2019-3</t>
+          <t>材料力学性能李敏 (2-3,5-10周) 金属材料工程2019-3</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
@@ -1190,7 +1190,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-10周) 金属材料工程2019-1-2</t>
+          <t>材料力学性能李敏 (2-3,5-10周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1275,12 +1275,16 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>电动汽车设计李玉善,刘宗锋 (1-8周) 车辆工程2018-1-4</t>
+          <t>电动汽车设计李玉善 (1-2,4-8周) 车辆工程2018-1-4</t>
         </is>
       </c>
       <c r="P7" t="inlineStr"/>
       <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>普通化学（B）陈伟 (4-11周) 地质工程2021-1-2</t>
+        </is>
+      </c>
       <c r="S7" t="inlineStr">
         <is>
           <t>供应链管理李美燕 (4-15周) 工业工程2018-1-3</t>
@@ -1299,7 +1303,7 @@
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr">
         <is>
-          <t>电动汽车设计李玉善,刘宗锋 (1-8周) 车辆工程2018-1-4</t>
+          <t>电动汽车设计李玉善 (1-8周) 车辆工程2018-1-4</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1365,7 +1369,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
-          <t>运输经济学孙彦明,王超 (2-5,7-11周) 交通运输2019-1-2</t>
+          <t>运输经济学孙彦明 (2-5,7-11周) 交通运输2019-1-2</t>
         </is>
       </c>
       <c r="M8" t="inlineStr"/>
@@ -1382,7 +1386,7 @@
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>液压、液力与气压传动刘俊龙,刘宗锋 (1-9周) 车辆工程2019-1-3</t>
+          <t>液压、液力与气压传动刘俊龙 (1-9周) 车辆工程2019-1-3</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
@@ -1403,7 +1407,7 @@
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
-          <t>运输经济学孙彦明,王超 (2-5,7-11周) 交通运输2019-1-2</t>
+          <t>运输经济学孙彦明 (2-5,7-11周) 交通运输2019-1-2</t>
         </is>
       </c>
       <c r="W8" t="inlineStr"/>
@@ -1414,7 +1418,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>液压、液力与气压传动刘俊龙,刘宗锋 (1-9周) 车辆工程2019-1-3</t>
+          <t>液压、液力与气压传动刘俊龙 (1-9周) 车辆工程2019-1-3</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr"/>
@@ -1623,7 +1627,7 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+          <t>思想道德与法治徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
         </is>
       </c>
       <c r="U10" t="inlineStr"/>
@@ -1736,7 +1740,7 @@
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础郗凤芹 (4-15周) 国际经济与贸易2021-1-2班,会计学2021-1-2</t>
+          <t>思想道德与法治郗凤芹 (4-15周) 国际经济与贸易2021-1-2班,会计学2021-1-2</t>
         </is>
       </c>
       <c r="U11" t="inlineStr"/>
@@ -1905,7 +1909,7 @@
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>车辆动力学基础杜现斌,王强 (2-9周) 车辆工程2018-1-4</t>
+          <t>车辆动力学基础杜现斌 (2-9周) 车辆工程2018-1-4</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1935,7 +1939,7 @@
       <c r="P13" t="inlineStr"/>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>车辆动力学基础杜现斌,王强 (2-9周) 车辆工程2018-1-4</t>
+          <t>车辆动力学基础杜现斌 (2-9周) 车辆工程2018-1-4</t>
         </is>
       </c>
       <c r="R13" t="inlineStr"/>
@@ -1953,7 +1957,7 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr">
         <is>
-          <t>应用统计学(A)马媛 (1-8周) 工商管理2019-1-2</t>
+          <t>应用统计学(A)马媛 (1,3-8周) 工商管理2019-1-2</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
@@ -2038,7 +2042,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 地质工程2021-1-3</t>
+          <t>思想道德与法治徐玉明 (4-15周) 地质工程2021-1-3</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2084,7 +2088,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础徐玉明 (4-15周) 地质工程2021-1-3</t>
+          <t>思想道德与法治徐玉明 (4-15周) 地质工程2021-1-3</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2137,7 +2141,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>采矿科学与技术（双语）蒋力帅 (1-9周) 采矿工程2018-1-2</t>
+          <t>采矿科学与技术（双语）蒋力帅 (1-2,4-9周) 采矿工程2018-1-2</t>
         </is>
       </c>
       <c r="J15" t="inlineStr"/>
@@ -2272,7 +2276,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>工程测试技术基础隋秀华 (2-10周) 机械设计制造及其自动化2019-1-3</t>
+          <t>工程测试技术基础隋秀华 (2,4-10周) 机械设计制造及其自动化2019-1-3</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -2337,7 +2341,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>工程测试技术基础隋秀华 (2-10周) 机械设计制造及其自动化2019-1-3</t>
+          <t>工程测试技术基础隋秀华 (2,4-10周) 机械设计制造及其自动化2019-1-3</t>
         </is>
       </c>
       <c r="P17" t="inlineStr"/>
@@ -2402,11 +2406,7 @@
           <t>专业导论*韩永芹 (4-11周) 高分子材料与工程2021-1-3</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>地球化学陈桥 (1-8周) 地质工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>突发事件案例分析杨文宇 (5-9周) 安全工程（应急管理方向）2019</t>
+          <t>突发事件案例分析董晓素 (5-9周) 安全工程（应急管理方向）2019</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
+          <t>马克思主义基本原理冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
         </is>
       </c>
       <c r="J25" t="inlineStr"/>
@@ -3077,7 +3077,7 @@
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 机械电子工程2021-4-6</t>
+          <t>思想道德与法治高华 (4-15周) 机械电子工程2021-4-6</t>
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
@@ -3098,12 +3098,12 @@
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>数据库技术基础张永华 (1-8周) 临班77</t>
+          <t>数据库技术基础张永华 (1-2,4-8周) 临班77</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>数据库技术基础张永华 (1-8周) 临班77</t>
+          <t>数据库技术基础张永华 (1-2,4-8周) 临班77</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr"/>
@@ -3546,11 +3546,7 @@
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
+      <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr">
         <is>
           <t>几何量公差与检测戴向云 (2-9周) 机械设计制造及其自动化2019-1-3</t>
@@ -3845,7 +3841,7 @@
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
+          <t>马克思主义基本原理冯丽华 (1-12周) 工程力学2020-1-2班,工业工程2020-1-2</t>
         </is>
       </c>
       <c r="T33" t="inlineStr"/>
@@ -3934,7 +3930,7 @@
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>运筹学（B）庄晓雯 (1-13周) 工商管理2019-2</t>
+          <t>运筹学（B）庄晓雯 (2-13周) 工商管理2019-2</t>
         </is>
       </c>
       <c r="T34" t="inlineStr"/>
@@ -3997,7 +3993,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论贾强,张蕾 (1-12周) 机械设计制造及其自动化2020-1-4</t>
+          <t>马克思主义基本原理贾强,张蕾 (1-12周) 机械设计制造及其自动化2020-1-4</t>
         </is>
       </c>
       <c r="J35" t="inlineStr"/>
@@ -4085,7 +4081,7 @@
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -4115,7 +4111,7 @@
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>思想道德与法治高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -4137,7 +4133,7 @@
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
+          <t>马克思主义基本原理尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
         </is>
       </c>
       <c r="U36" t="inlineStr"/>
@@ -4223,11 +4219,7 @@
           <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>地质学基础宋志刚,赵秀丽 (4-15周) 勘查技术与工程2021-2</t>
-        </is>
-      </c>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
@@ -4292,7 +4284,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论吴华眉 (1-12周) 测绘工程2020-5班,遥感科学与技术2020-1-3</t>
+          <t>马克思主义基本原理吴华眉 (1-12周) 测绘工程2020-5班,遥感科学与技术2020-1-3</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
@@ -4322,7 +4314,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
+          <t>马克思主义基本原理刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
         </is>
       </c>
       <c r="P38" t="inlineStr"/>
@@ -4356,7 +4348,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>思想道德与法治高华 (4-15周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr"/>
@@ -5876,7 +5868,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>地质学基础宋志刚,赵秀丽 (4-15周) 勘查技术与工程2021-2</t>
+          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -5884,11 +5876,7 @@
           <t>电工电子技术（B）王亚群 (1-12周) 安全工程2020-4-5</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
-        </is>
-      </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
@@ -6429,7 +6417,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
+          <t>马克思主义基本原理尤绪超 (1-12周) 机械电子工程2020-5-6班,机械设计制造及其自动化2020-5-6</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6445,7 +6433,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论魏丽萍 (1-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
+          <t>马克思主义基本原理魏丽萍 (1-12周) 物流管理2020-1-2班,国际经济与贸易2020-1-2</t>
         </is>
       </c>
       <c r="J63" t="inlineStr"/>
@@ -6463,7 +6451,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-1-4</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-1-4</t>
         </is>
       </c>
       <c r="P63" t="inlineStr"/>
@@ -6475,12 +6463,12 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>马克思主义基本原理概论王建志 (1-12周) 金融学2020-1-2班,会计学2020-1-2</t>
+          <t>马克思主义基本原理王建志 (1-12周) 金融学2020-1-2班,会计学2020-1-2</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-5班,遥感科学与技术2021-1-3</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
@@ -6501,7 +6489,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>思想道德修养与法律基础杜萍萍 (4-15周) 测绘工程2021-1-4</t>
+          <t>思想道德与法治杜萍萍 (4-15周) 测绘工程2021-1-4</t>
         </is>
       </c>
       <c r="Z63" t="inlineStr"/>
@@ -6620,7 +6608,11 @@
           <t>地统计学概论孔冬贤 (4-11周) 遥感科学与技术2019-1-3</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>采矿学黄万朋 (1-8周) 采矿工程（智能开采方向）2019-2</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>遥感数字图像处理蔡玉林 (3-13周) 地理信息科学2019-1-2</t>
@@ -6707,7 +6699,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>专业英语赵俐红 (4-11周) 勘查技术与工程2018-1-2</t>
+          <t>专业英语赵俐红 (5-11周) 勘查技术与工程2018-1-2</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -6816,7 +6808,7 @@
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr">
         <is>
-          <t>岩浆岩岩石学王淞杰 (2-7周) 资源勘查工程2020-2</t>
+          <t>岩浆岩岩石学王淞杰 (2-3,5,7周) 资源勘查工程2020-2</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
@@ -7543,11 +7535,7 @@
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>微生物学韩秋霞 (2-7,10-14周) 生物工程2019-1</t>
-        </is>
-      </c>
+      <c r="M75" t="inlineStr"/>
       <c r="N75" t="inlineStr">
         <is>
           <t>分子生物学吕英海 (1-7,10-11周) 生物工程2019-1</t>
@@ -7560,11 +7548,7 @@
       </c>
       <c r="P75" t="inlineStr"/>
       <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>微生物学韩秋霞 (2-7,10-14单周) 生物工程2019-1</t>
-        </is>
-      </c>
+      <c r="R75" t="inlineStr"/>
       <c r="S75" t="inlineStr">
         <is>
           <t>化工原理(2-2)马艺心 (1-7,10-11周) 生物工程2019-1</t>
@@ -8569,42 +8553,94 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>J14-525室</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
+          <t>J14-332室</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>专业英语常象春,张鹏飞 (4-13周) 资源勘查工程2019-1</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>构造地质学孟元库 (4-13周) 资源勘查工程2019-1</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>地球物理勘探李建平 (4-15周) 资源勘查工程（海洋矿产资源方向）2018</t>
+        </is>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>地质学基础曹玉亭,王兆鹏 (4-15周) 勘查技术与工程2021-1</t>
+        </is>
+      </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr"/>
+          <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>地质学基础宋志刚,赵延洋 (4-15周) 勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
+        </is>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>构造地质学孟元库 (4-13周) 资源勘查工程2019-1</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>地球物理勘探李建平 (4-15周) 资源勘查工程（海洋矿产资源方向）2018</t>
+        </is>
+      </c>
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
-      <c r="Y90" t="inlineStr"/>
+          <t>地球物理勘探李建平 (4-6周) 资源勘查工程（海洋矿产资源方向）2018</t>
+        </is>
+      </c>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>专业英语魏友卿,余继峰 (4-13周) 资源勘查工程2019-2</t>
+        </is>
+      </c>
       <c r="Z90" t="inlineStr"/>
-      <c r="AA90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr">
+        <is>
+          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
+        </is>
+      </c>
       <c r="AB90" t="inlineStr"/>
       <c r="AC90" t="inlineStr"/>
       <c r="AD90" t="inlineStr"/>
@@ -8616,99 +8652,6 @@
       <c r="AJ90" t="inlineStr"/>
       <c r="AK90" t="inlineStr"/>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>J14-332室</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>专业英语常象春,张鹏飞 (4-13周) 资源勘查工程2019-1</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>构造地质学孟元库 (4-13周) 资源勘查工程2019-1</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>地球物理勘探李建平 (4-15周) 资源勘查工程（海洋矿产资源方向）2018</t>
-        </is>
-      </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
-        </is>
-      </c>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="inlineStr">
-        <is>
-          <t>采矿学李占海 (1-11周) 采矿工程2019-1-2</t>
-        </is>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr">
-        <is>
-          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
-        </is>
-      </c>
-      <c r="R91" t="inlineStr">
-        <is>
-          <t>构造地质学孟元库 (4-13周) 资源勘查工程2019-1</t>
-        </is>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>地球物理勘探李建平 (4-15周) 资源勘查工程（海洋矿产资源方向）2018</t>
-        </is>
-      </c>
-      <c r="T91" t="inlineStr"/>
-      <c r="U91" t="inlineStr"/>
-      <c r="V91" t="inlineStr"/>
-      <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr">
-        <is>
-          <t>地球物理勘探李建平 (4-6周) 资源勘查工程（海洋矿产资源方向）2018</t>
-        </is>
-      </c>
-      <c r="Y91" t="inlineStr">
-        <is>
-          <t>专业英语魏友卿,余继峰 (4-13周) 资源勘查工程2019-2</t>
-        </is>
-      </c>
-      <c r="Z91" t="inlineStr"/>
-      <c r="AA91" t="inlineStr">
-        <is>
-          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
-        </is>
-      </c>
-      <c r="AB91" t="inlineStr"/>
-      <c r="AC91" t="inlineStr"/>
-      <c r="AD91" t="inlineStr"/>
-      <c r="AE91" t="inlineStr"/>
-      <c r="AF91" t="inlineStr"/>
-      <c r="AG91" t="inlineStr"/>
-      <c r="AH91" t="inlineStr"/>
-      <c r="AI91" t="inlineStr"/>
-      <c r="AJ91" t="inlineStr"/>
-      <c r="AK91" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/excel/5.xlsx
+++ b/excel/5.xlsx
@@ -1018,7 +1018,11 @@
           <t>应用统计学（C）赵峰 (1-8周) 电子商务2019-1-2</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>水文地质学尹会永 (4-9周) 资源勘查工程2019-1-3</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
@@ -1155,7 +1159,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-10周) 金属材料工程2019-1-2</t>
+          <t>材料力学性能李敏 (2-7,9-10周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1190,7 +1194,7 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-3,5-10周) 金属材料工程2019-1-2</t>
+          <t>材料力学性能李敏 (2-3,5-9周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1201,7 +1205,7 @@
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr">
         <is>
-          <t>粉末冶金学谢鲲 (1-8周) 金属材料工程2018-1-3</t>
+          <t>粉末冶金学谢鲲 (1-7周) 金属材料工程2018-1-3</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
@@ -1211,7 +1215,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>材料力学性能李敏 (2-10周) 金属材料工程2019-3</t>
+          <t>材料力学性能李敏 (2-7,9-10周) 金属材料工程2019-3</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr"/>
@@ -1316,7 +1320,11 @@
           <t>专业英语杨坤 (1-8周) 工程力学2018-1-3</t>
         </is>
       </c>
-      <c r="Z7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>计算机地质绘图王其芳 (4-9周) 资源勘查工程2019-1-3</t>
+        </is>
+      </c>
       <c r="AA7" t="inlineStr"/>
       <c r="AB7" t="inlineStr"/>
       <c r="AC7" t="inlineStr"/>
@@ -1380,7 +1388,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>工程测量景冬 (1-9周) 采矿工程（智能开采方向）2019-2</t>
+          <t>工程测量景冬 (1-7,9周) 采矿工程（智能开采方向）2019-2</t>
         </is>
       </c>
       <c r="P8" t="inlineStr"/>
@@ -1425,12 +1433,12 @@
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>中级财务会计（II）郝敏 (1-12周) 会计学(辅修) 2019版</t>
+          <t>中级财务会计（II）郝敏 (1-2,4-12周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>中级财务会计（II）郝敏 (1-12周) 会计学(辅修) 2019版</t>
+          <t>中级财务会计（II）郝敏 (1-2,4-12周) 会计学(辅修) 2019版</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1446,12 +1454,12 @@
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>应用统计学陶敏 (4-14周) 国际经济与贸易(辅修)2020-1</t>
+          <t>应用统计学陶敏 (5-14周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>应用统计学陶敏 (4-14周) 国际经济与贸易(辅修)2020-1</t>
+          <t>应用统计学陶敏 (5-14周) 国际经济与贸易(辅修)2020-1</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1678,17 +1686,9 @@
           <t>地震勘探原理林年添 (2-10周) 勘查技术与工程2019-1-2</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>水文地质学尹会永 (4-9周) 资源勘查工程2019-1-3</t>
-        </is>
-      </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>计算机地质绘图王其芳 (4-9周) 资源勘查工程2019-1-3</t>
@@ -1712,11 +1712,7 @@
           <t>地震勘探原理林年添 (2-10周) 勘查技术与工程2019-1-2</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
-        </is>
-      </c>
+      <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1912,11 +1908,7 @@
           <t>车辆动力学基础杜现斌 (2-9周) 车辆工程2018-1-4</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>证券投资学周衍平 (1-9周) 投资学2019-1-2</t>
-        </is>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
           <t>外贸单证与跟单*刘本玲 (1-6周) 国际经济与贸易2018-1-2</t>
@@ -2008,7 +2000,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)杨明 (4-19周) 地质工程2021-1</t>
+          <t>大学英语（A)(2-1)杨明 (4-18周) 地质工程2021-1</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2024,7 +2016,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)王惠 (4-19周) 采矿工程2021-1</t>
+          <t>大学英语（A)(2-1)王惠 (4-18周) 采矿工程2021-1</t>
         </is>
       </c>
       <c r="J14" t="inlineStr"/>
@@ -2032,7 +2024,7 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)杨明 (4-19周) 地质工程2021-1</t>
+          <t>大学英语（A)(2-1)杨明 (4-18周) 地质工程2021-1</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
@@ -2214,7 +2206,11 @@
           <t>J14-211室</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大学英语（A)(2-1)孔昭莉 (4-18周) 地质工程2021-2</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>采矿学王玉和 (1-5周) 采矿工程2019-1-2</t>
@@ -2327,7 +2323,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>构造地质学张丽萍 (1-8周) 勘查技术与工程2019-1-2</t>
+          <t>构造地质学张丽萍 (1-5,7-8周) 勘查技术与工程2019-1-2</t>
         </is>
       </c>
       <c r="J17" t="inlineStr"/>
@@ -2484,7 +2480,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)陈昕 (4-19周) 资源勘查工程2021-1</t>
+          <t>大学英语（A)(2-1)陈昕 (4-18周) 资源勘查工程2021-1</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -2675,7 +2671,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>概率论与数理统计黄珍 (1-12周) 测绘工程2020-4-5</t>
+          <t>概率论与数理统计黄珍 (1-3,5-12周) 测绘工程2020-4-5</t>
         </is>
       </c>
       <c r="J21" t="inlineStr"/>
@@ -2687,7 +2683,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)谭剑鸣 (4-19周) 机械电子工程2021-6</t>
+          <t>大学英语（A)(2-1)谭剑鸣 (4-18周) 机械电子工程2021-6</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
@@ -2697,7 +2693,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)郭放 (4-19周) 地理信息科学2021-3</t>
+          <t>大学英语（A)(2-1)郭放 (4-18周) 地理信息科学2021-3</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -3030,7 +3026,11 @@
         </is>
       </c>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>大学生心理健康教育薄艳艳,牟杰 (4-11周) 地质工程2021-1-3班,勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="G25" t="inlineStr">
         <is>
           <t>工程地质专业英语张鹏飞 (1-8周) 地质工程2019-1</t>
@@ -3081,7 +3081,11 @@
         </is>
       </c>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>大学生心理健康教育薄艳艳,牟杰 (4-11周) 地质工程2021-1-3班,勘查技术与工程2021-2</t>
+        </is>
+      </c>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr">
         <is>
@@ -3090,7 +3094,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)翟清永 (4-19周) 遥感科学与技术2021-1</t>
+          <t>大学英语（A)(2-1)翟清永 (4-18周) 遥感科学与技术2021-1</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr"/>
@@ -3098,12 +3102,12 @@
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr">
         <is>
-          <t>数据库技术基础张永华 (1-2,4-8周) 临班77</t>
+          <t>数据库技术基础张永华 (1-2,4-5,7-8周) 临班77</t>
         </is>
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>数据库技术基础张永华 (1-2,4-8周) 临班77</t>
+          <t>数据库技术基础张永华 (1-2,4-5,7-8周) 临班77</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr"/>
@@ -3126,7 +3130,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>无机材料生产设备王相南 (5-8周) 无机非金属材料工程2018</t>
+          <t>无机材料生产设备王相南 (5,7-8周) 无机非金属材料工程2018</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -3185,11 +3189,7 @@
           <t>材料力学性能迟静 (2-6周) 金属材料工程2019-4-5</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
-        <is>
-          <t>无机材料生产设备王相南 (5-8周) 无机非金属材料工程2018</t>
-        </is>
-      </c>
+      <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>物理化学杨静 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学杨静 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>物理化学杨静 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学杨静 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
@@ -3416,11 +3416,7 @@
           <t>线性代数李刚 (1-11周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>制图基础（A）戚美 (4-15周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>计算机程序设计(VF)康宏 (1-6周) 工商管理2020-1-2</t>
@@ -3435,7 +3431,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)张兴梅 (4-19周) 勘查技术与工程2021-1</t>
+          <t>大学英语（A)(2-1)张兴梅 (4-18周) 勘查技术与工程2021-1</t>
         </is>
       </c>
       <c r="J29" t="inlineStr"/>
@@ -3471,11 +3467,7 @@
           <t>高等数学（A）（2-1）付余 (4-19周) 机械电子工程2021-4-6</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>制图基础（A）戚美 (4-15周) 能源与动力工程2021-1-3</t>
-        </is>
-      </c>
+      <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr">
         <is>
           <t>地下水动力学王敏 (2-12周) 水文与水资源工程2019-1-2</t>
@@ -3494,7 +3486,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李美 (4-19周) 遥感科学与技术2021-2</t>
+          <t>大学英语（A)(2-1)李美 (4-18周) 遥感科学与技术2021-2</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr"/>
@@ -3578,7 +3570,7 @@
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr">
         <is>
-          <t>工程测量景冬 (1-9周) 采矿工程（智能开采方向）2019-2</t>
+          <t>工程测量景冬 (1-7,9周) 采矿工程（智能开采方向）2019-2</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
@@ -3620,12 +3612,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>外贸英文函电于晓燕 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>外贸英文函电于晓燕 (1-5,7-9周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>商务英语口语于晓燕 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>商务英语口语于晓燕 (1-5,7-9周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
@@ -3662,7 +3654,7 @@
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr">
         <is>
-          <t>国际金融孙江永 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>国际服务贸易李丽丽 (5-9周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -3689,7 +3681,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>国际服务贸易李丽丽 (1-9周) 国际经济与贸易2019-1-2</t>
+          <t>国际金融孙江永 (5-9周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr"/>
@@ -4015,15 +4007,11 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>构造地质学金爱文 (1-10周) 资源勘查工程（海洋矿产资源方向）2019</t>
+          <t>构造地质学金爱文 (1-8,10周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
       <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>岩石学樊爱萍,杨仁超 (1-8周) 地质工程2020-2</t>
-        </is>
-      </c>
+      <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
           <t>大学物理（B）（2-2）穆雪梅 (1-6,9-14周) 采矿工程2020-4-6</t>
@@ -4055,7 +4043,7 @@
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>沉积环境与沉积相杨仁超 (4-9周) 资源勘查工程（海洋矿产资源方向）2019</t>
+          <t>沉积环境与沉积相杨仁超 (4-6,9周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
       <c r="AB35" t="inlineStr"/>
@@ -4128,7 +4116,7 @@
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -4144,17 +4132,17 @@
       </c>
       <c r="W36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
         </is>
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 测绘工程2021-4-5班,安全工程2021-4-5</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>中国近现代史纲要叶小青 (4-15周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
+          <t>中国近现代史纲要叶小青 (4-7,9-15周) 材料化学2021-1-2班,新能源材料与器件2021-1-2</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr"/>
@@ -4182,7 +4170,7 @@
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李燕妮 (4-19周) 机械电子工程2021-2</t>
+          <t>大学英语（A)(2-1)李燕妮 (4-10,12-18周) 机械电子工程2021-2</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -4211,12 +4199,12 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)徐科吉 (4-19周) 高分子材料与工程2021-3</t>
+          <t>大学英语（A)(2-1)徐科吉 (4-10,12-18周) 高分子材料与工程2021-3</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
+          <t>大学英语（A)(2-1)刘海英 (4-18周) 机械电子工程2021-4</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -4242,7 +4230,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)刘海英 (4-19周) 机械电子工程2021-4</t>
+          <t>大学英语（A)(2-1)刘海英 (4-18周) 机械电子工程2021-4</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4312,16 +4300,12 @@
           <t>高等数学（A）（2-1）宋治涛 (4-19周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>马克思主义基本原理刘丽威 (1-12周) 勘查技术与工程2020-1-2班,水文与水资源工程2020-1-2</t>
-        </is>
-      </c>
+      <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-1）李 刚(sx) (4-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
+          <t>高等数学（A）（2-1）李 刚(sx) (4-5,7-19周) 智能制造工程2021-1-2班,机械设计制造及其自动化2021-5-6</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
@@ -4431,7 +4415,7 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>测井地质学杨思通,张涛 (4-12周) 资源勘查工程2018-1-3</t>
+          <t>测井地质学杨思通,张涛 (4-10,12周) 资源勘查工程2018-1-3</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
@@ -4497,7 +4481,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>金属塑性成形原理刘杰 (5-12周) 材料成型及控制工程2019-1-2</t>
+          <t>金属塑性成形原理刘杰 (5-8,10-12周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -4523,7 +4507,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>金属塑性成形原理刘杰 (5-12周) 材料成型及控制工程2019-1-2</t>
+          <t>金属塑性成形原理刘杰 (5-8,10-12周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
@@ -4586,7 +4570,7 @@
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr">
         <is>
-          <t>物理化学孙记夫 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学孙记夫 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -4629,7 +4613,7 @@
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr">
         <is>
-          <t>机械原理（A）魏军英 (5-15周) 材料成型及控制工程2019-1-2</t>
+          <t>机械原理（A）魏军英 (5-7,9-15周) 材料成型及控制工程2019-1-2</t>
         </is>
       </c>
       <c r="X41" t="inlineStr">
@@ -4687,10 +4671,14 @@
           <t>中级财务会计（I）吴文文 (1-12周) 会计学2020-1-2</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>采矿科学与技术（双语）蒋力帅 (5周) 采矿工程2018-1-2</t>
+        </is>
+      </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>工程测量翟敏 (1-9周) 采矿工程2019-4</t>
+          <t>工程测量翟敏 (1-6,8-9周) 采矿工程2019-4</t>
         </is>
       </c>
       <c r="P42" t="inlineStr"/>
@@ -4803,7 +4791,7 @@
       <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr">
         <is>
-          <t>采矿科学与技术（双语）蒋力帅 (1-9周) 采矿工程2018-1-2</t>
+          <t>采矿科学与技术（双语）蒋力帅 (1-3,5-9周) 采矿工程2018-1-2</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -4924,10 +4912,14 @@
           <t>工程热力学与传热学董晓素 (1-12周) 安全工程2020-5</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>环境工程微生物（双语）高宇 (1-9周) 环境工程2019-3</t>
+          <t>环境工程微生物（双语）高宇 (1-8周) 环境工程2019-3</t>
         </is>
       </c>
       <c r="F45" t="inlineStr"/>
@@ -5074,7 +5066,7 @@
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr">
         <is>
-          <t>物理化学孙记夫 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学孙记夫 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
@@ -5219,11 +5211,7 @@
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>几何量公差孙静 (1-9周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
         <is>
           <t>过程装备密封技术李晓宇 (3-10周) 过程装备与控制工程2018-1-3</t>
@@ -5245,11 +5233,7 @@
       </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>几何量公差孙静 (1-9周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr">
         <is>
           <t>装备的失效分析王凤芹 (3-10周) 过程装备与控制工程2018-1-3</t>
@@ -5294,7 +5278,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>构造地质学张丽萍 (1-6周) 勘查技术与工程2019-1-2</t>
+          <t>构造地质学张丽萍 (1-5周) 勘查技术与工程2019-1-2</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -5520,7 +5504,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>铸造工艺学王淑峰 (1-8周) 金属材料工程2018-1-3</t>
+          <t>铸造工艺学王淑峰 (1-5,7-8周) 金属材料工程2018-1-3</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -5621,11 +5605,7 @@
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>材料科学基础宋亮 (3-6周) 材料化学2019-1-2</t>
-        </is>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
@@ -5716,7 +5696,7 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>高分子化学韩永芹 (1-9周) 材料化学2019-1-2</t>
+          <t>高分子化学韩永芹 (1-8周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="N54" t="inlineStr"/>
@@ -5792,7 +5772,7 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>物理化学黄永清 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学黄永清 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I55" t="inlineStr"/>
@@ -5805,7 +5785,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>无机化学付民 (4-19周) 应用化学2021-1</t>
+          <t>无机化学付民 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -5822,7 +5802,7 @@
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="inlineStr">
         <is>
-          <t>物理化学黄永清 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学黄永清 (4-18周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="S55" t="inlineStr"/>
@@ -5880,13 +5860,13 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>普通地质学张丽萍 (4-11周) 水文与水资源工程2021-1</t>
+          <t>普通地质学张丽萍 (4-5,7-11周) 水文与水资源工程2021-1</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
       <c r="I56" t="inlineStr">
         <is>
-          <t>会计学(B)刘英姿 (1-8周) 工商管理2020-1-2</t>
+          <t>会计学(B)刘英姿 (1-7周) 工商管理2020-1-2</t>
         </is>
       </c>
       <c r="J56" t="inlineStr"/>
@@ -5895,7 +5875,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)王惠 (4-19周) 应用化学2021-1</t>
+          <t>大学英语（A)(2-1)王惠 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -5911,7 +5891,7 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李恒 (4-19周) 勘查技术与工程2021-2</t>
+          <t>大学英语（A)(2-1)李恒 (4-6周) 勘查技术与工程2021-2</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
@@ -6182,7 +6162,7 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)李美 (4-19周) 遥感科学与技术2021-2</t>
+          <t>大学英语（A)(2-1)李美 (4-18周) 遥感科学与技术2021-2</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
@@ -6340,7 +6320,7 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)翟清永 (4-19周) 遥感科学与技术2021-1</t>
+          <t>大学英语（A)(2-1)翟清永 (4-18周) 遥感科学与技术2021-1</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
@@ -6371,7 +6351,7 @@
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>国际经济法学韩天竹,牛哲莉 (1-16周) 法学2019-1-3</t>
+          <t>国际经济法学韩天竹,牛哲莉 (1-6,8周) 法学2019-1-3</t>
         </is>
       </c>
       <c r="U62" t="inlineStr"/>
@@ -6412,7 +6392,7 @@
       <c r="C63" t="inlineStr"/>
       <c r="D63" t="inlineStr">
         <is>
-          <t>构造地质学金爱文 (1-10周) 资源勘查工程（海洋矿产资源方向）2019</t>
+          <t>构造地质学金爱文 (1-8,10周) 资源勘查工程（海洋矿产资源方向）2019</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -6517,7 +6497,7 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr">
         <is>
-          <t>岩体力学张伟杰 (3-8周) 地质工程2019-1-2</t>
+          <t>岩体力学张伟杰 (3-5,7-8周) 地质工程2019-1-2</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -6542,7 +6522,7 @@
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)姜妮 (4-19周) 地理信息科学2021-2</t>
+          <t>大学英语（A)(2-1)姜妮 (4-18周) 地理信息科学2021-2</t>
         </is>
       </c>
       <c r="N64" t="inlineStr">
@@ -6572,14 +6552,10 @@
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-1)姜妮 (4-19周) 地理信息科学2021-2</t>
-        </is>
-      </c>
-      <c r="X64" t="inlineStr">
-        <is>
-          <t>构造地质学张丽萍 (1-8周) 勘查技术与工程2019-1-2</t>
-        </is>
-      </c>
+          <t>大学英语（A)(2-1)姜妮 (4-18周) 地理信息科学2021-2</t>
+        </is>
+      </c>
+      <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
@@ -6620,7 +6596,11 @@
       </c>
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>思想道德与法治徐玉明 (4-15周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+        </is>
+      </c>
       <c r="I65" t="inlineStr">
         <is>
           <t>大地测量学基础郭金运 (1-14周) 测绘工程2019-3</t>
@@ -6791,7 +6771,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>普通地质学王泽利 (4-15周) 资源勘查工程2021-2</t>
+          <t>普通地质学王泽利 (4-10,12-15周) 资源勘查工程2021-2</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -6994,7 +6974,11 @@
           <t>有机化学（2-2）高登征 (1-8周) 生物工程2020-1-2</t>
         </is>
       </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>岩土工程勘察尹会永 (5-14周) 地质工程2018-2</t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
@@ -7346,7 +7330,7 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>物理化学孔霞 (4-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
+          <t>物理化学孔霞 (4-12,14-19周) 生物工程2020-1-2班,化学工程与工艺2020-1-3</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
@@ -7524,12 +7508,12 @@
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr">
         <is>
-          <t>物理化学赵沛文 (4-19周) 矿物加工工程2020-1-3</t>
+          <t>物理化学赵沛文 (4-18周) 矿物加工工程2020-1-3</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>化工仪表及自动化牛海丽 (1-7,10周) 生物工程2019-1-2</t>
+          <t>化工仪表及自动化牛海丽 (1-3,5-7,10周) 生物工程2019-1-2</t>
         </is>
       </c>
       <c r="J75" t="inlineStr"/>
@@ -7559,19 +7543,15 @@
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr">
         <is>
-          <t>物理化学赵沛文 (4-19周) 矿物加工工程2020-1-3</t>
-        </is>
-      </c>
-      <c r="X75" t="inlineStr">
-        <is>
-          <t>化工仪表及自动化牛海丽 (1-7,10周) 生物工程2019-1-2</t>
-        </is>
-      </c>
+          <t>物理化学赵沛文 (4-18周) 矿物加工工程2020-1-3</t>
+        </is>
+      </c>
+      <c r="X75" t="inlineStr"/>
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>无机化学付民 (4-19周) 应用化学2021-1</t>
+          <t>无机化学付民 (4-18周) 应用化学2021-1</t>
         </is>
       </c>
       <c r="AB75" t="inlineStr"/>
@@ -8575,7 +8555,7 @@
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="inlineStr">
         <is>
-          <t>构造地质学孟元库 (4-13周) 资源勘查工程2019-1</t>
+          <t>构造地质学孟元库 (4-5,7-13周) 资源勘查工程2019-1</t>
         </is>
       </c>
       <c r="I90" t="inlineStr">
@@ -8587,7 +8567,7 @@
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
-          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
+          <t>构造地质学程燕君 (4-12周) 资源勘查工程2019-3</t>
         </is>
       </c>
       <c r="M90" t="inlineStr">
@@ -8608,12 +8588,12 @@
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>构造地质学程燕君 (4-13周) 资源勘查工程2019-3</t>
+          <t>构造地质学程燕君 (4-12周) 资源勘查工程2019-3</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>构造地质学孟元库 (4-13周) 资源勘查工程2019-1</t>
+          <t>构造地质学孟元库 (4-5,7-13周) 资源勘查工程2019-1</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
@@ -8624,7 +8604,11 @@
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
-      <c r="W90" t="inlineStr"/>
+      <c r="W90" t="inlineStr">
+        <is>
+          <t>水文地质与工程地质学高宗军,张彧齐 (3-14周) 勘查技术与工程2019-1-2</t>
+        </is>
+      </c>
       <c r="X90" t="inlineStr">
         <is>
           <t>地球物理勘探李建平 (4-6周) 资源勘查工程（海洋矿产资源方向）2018</t>

--- a/excel/5.xlsx
+++ b/excel/5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK99"/>
+  <dimension ref="A1:AK98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -812,7 +812,7 @@
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr">
         <is>
-          <t>电子商务专业英语文献阅读孙丽华 (1-9周) 电子商务2019-2</t>
+          <t>电子商务专业英语文献阅读孙丽华 (1,3-9周) 电子商务2019-2</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -878,7 +878,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>火灾事故调查杜文州 (4-11周) 安全工程2019-3-4</t>
+          <t>火灾事故调查杜文州 (4-5,8-11周) 安全工程2019-3-4</t>
         </is>
       </c>
       <c r="J4" t="inlineStr"/>
@@ -909,7 +909,7 @@
       <c r="S4" t="inlineStr"/>
       <c r="T4" t="inlineStr">
         <is>
-          <t>火灾事故调查杜文州 (4-11周) 安全工程2019-3-4</t>
+          <t>火灾事故调查杜文州 (4-5,8-11周) 安全工程2019-3-4</t>
         </is>
       </c>
       <c r="U4" t="inlineStr"/>
@@ -966,7 +966,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>市场调查与预测宋平 (1-9周) 工商管理(社会体育指导与管理)2019</t>
+          <t>市场调查与预测宋平 (1,3-9周) 工商管理(社会体育指导与管理)2019</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1083,7 +1083,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>材料腐蚀与防护岳丽杰 (1-9周) 金属材料工程2019-1-2</t>
+          <t>材料腐蚀与防护岳丽杰 (1,3-9周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -1122,7 +1122,7 @@
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr">
         <is>
-          <t>海图制图王瑞富 (1-10周) 测绘工程2020-1-5</t>
+          <t>海图制图王瑞富 (1-7周) 测绘工程2020-1-5</t>
         </is>
       </c>
       <c r="X6" t="inlineStr"/>
@@ -1140,22 +1140,22 @@
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr">
         <is>
-          <t>中级财务会计（I）郝敏,吴文文 (1-12周) 会计学(辅修)2020</t>
+          <t>中级财务会计（I）郝敏,吴文文 (1,3-12周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AH6" t="inlineStr">
         <is>
-          <t>中级财务会计（I）郝敏,吴文文 (1-12周) 会计学(辅修)2020</t>
+          <t>中级财务会计（I）郝敏,吴文文 (1,3-12周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>应用统计学王家坤 (1-11周) 会计学(辅修)2020</t>
+          <t>应用统计学王家坤 (3-11周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
         <is>
-          <t>应用统计学王家坤 (1-11周) 会计学(辅修)2020</t>
+          <t>应用统计学王家坤 (3-11周) 会计学(辅修)2020</t>
         </is>
       </c>
       <c r="AK6" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>矿井设计秦忠诚 (1-5周) 采矿工程2019-3-4</t>
+          <t>矿井设计于凤海 (5周) 采矿工程2019-3-4</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1188,7 +1188,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>人力资源管理袁清和 (1-8周) 工业工程2020-1-2</t>
+          <t>人力资源管理袁清和 (1,3-8周) 工业工程2020-1-2</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1214,7 +1214,7 @@
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="inlineStr">
         <is>
-          <t>矿井设计秦忠诚 (1-5周) 采矿工程2019-3-4</t>
+          <t>矿井设计于凤海 (4-5周) 采矿工程2019-3-4</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
@@ -1255,13 +1255,17 @@
           <t>高级财务会计韩沚清 (1-9周) 会计学2019-1-2</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>海洋生物技术李慧娟 (5周) 生物工程2019-1-2</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>会计信息系统（A）崔树德 (1-14周) 会计学2019-1-2</t>
+          <t>会计信息系统（A）崔树德 (1,3-14周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1327,19 +1331,19 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>EXCEL财务应用赵桐 (1-12周) 会计学(辅修)2019</t>
+          <t>EXCEL财务应用赵桐 (1-3,5-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr">
         <is>
-          <t>审计学刘英姿 (1-12周) 会计学(辅修)2019</t>
+          <t>审计学刘英姿 (1,3-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AH8" t="inlineStr">
         <is>
-          <t>审计学刘英姿 (1-12周) 会计学(辅修)2019</t>
+          <t>审计学刘英姿 (1,3-12周) 会计学(辅修)2019</t>
         </is>
       </c>
       <c r="AI8" t="inlineStr">
@@ -1480,7 +1484,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (1-12周) 测绘工程2019-3</t>
+          <t>工程测量学刘尚国 (1,3-6,8-12周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="J10" t="inlineStr"/>
@@ -1564,7 +1568,11 @@
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>社会主义发展史曹丙燕 (1-8周) 智能制造工程2021-1-2班,能源与动力工程2021-1-3</t>
+        </is>
+      </c>
       <c r="G11" t="inlineStr">
         <is>
           <t>结晶学与矿物学杜龙,毛光周 (5-8周) 资源勘查工程2021-1-2</t>
@@ -1603,7 +1611,11 @@
       </c>
       <c r="S11" t="inlineStr"/>
       <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>社会主义发展史曹丙燕 (1-8周) 智能制造工程2021-1-2班,能源与动力工程2021-1-3</t>
+        </is>
+      </c>
       <c r="V11" t="inlineStr">
         <is>
           <t>矿相学郑雪 (3-10周) 资源勘查工程2020-1-3</t>
@@ -1659,11 +1671,7 @@
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>环境影响评价曹晓强 (1-6周) 环境工程2019-1-2</t>
-        </is>
-      </c>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
           <t>化工过程安全贺正龙 (1-9周) 安全工程2019-3-4</t>
@@ -1905,12 +1913,12 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-2）宋治涛 (1-14周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
+          <t>Python 程序设计刘洪强 (1-9周) 地理信息科学2019-1-3</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>高等数学（A）（2-2）宋治涛 (1-14周) 工程力学2021-1-2班,工业工程2021-1-2</t>
+          <t>误差理论与测量平差基础刘国林 (1-8周) 遥感科学与技术2020-3</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -2073,11 +2081,7 @@
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>液压传动与控制王成龙,王亮 (2-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
@@ -2120,11 +2124,7 @@
           <t>机械设计基础（A）陈毕胜 (4-15周) 能源与动力工程2020-1-3</t>
         </is>
       </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>液压传动与控制王成龙,王亮 (2-13周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
           <t>微机原理及应用王宝仁 (4-13周) 机械设计制造及其自动化2020-1-2</t>
@@ -2170,22 +2170,14 @@
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>电子技术常龙,王云霞 (1-6,9-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr">
         <is>
           <t>机械设计基础鲍怀谦,曹冲振,孙静 (4-9,12-18周) 智能制造工程2020-1-3</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>计算机数控系统武洪恩 (1-14周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
@@ -2201,23 +2193,19 @@
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>国际企业管理高军红 (4-6周) 工商管理(社会体育指导与管理)2019</t>
+        </is>
+      </c>
       <c r="R17" t="inlineStr">
         <is>
           <t>机械设计基础鲍怀谦,曹冲振,孙静 (4-9,12-18周) 智能制造工程2020-1-3</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>计算机数控系统武洪恩 (1-13周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>电子技术常龙,王云霞 (1-6,9-18周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
           <t>微机原理及应用武洪恩 (4-13周) 机械设计制造及其自动化2020-5-6</t>
@@ -2259,7 +2247,7 @@
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr">
         <is>
-          <t>化工原理（B）刘迪 (3-13周) 材料化学2019-1-2</t>
+          <t>化工原理（B）刘迪 (4-13周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -2286,7 +2274,7 @@
       <c r="R18" t="inlineStr"/>
       <c r="S18" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (1-12周) 测绘工程2019-3</t>
+          <t>工程测量学刘尚国 (1-6,8-12周) 测绘工程2019-3</t>
         </is>
       </c>
       <c r="T18" t="inlineStr"/>
@@ -2294,7 +2282,7 @@
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr">
         <is>
-          <t>化工原理（B）刘迪 (3-13周) 材料化学2019-1-2</t>
+          <t>化工原理（B）刘迪 (4-13周) 材料化学2019-1-2</t>
         </is>
       </c>
       <c r="X18" t="inlineStr"/>
@@ -2358,12 +2346,12 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Python 程序设计刘洪强 (1-9周) 地理信息科学2019-1-3</t>
+          <t>高等数学（A）（2-2）宋治涛 (1-14周) 水文与水资源工程2021-1-2班,勘查技术与工程2021-1-2</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>误差理论与测量平差基础刘国林 (1-8周) 遥感科学与技术2020-3</t>
+          <t>高等数学（A）（2-2）宋治涛 (1-8周) 工程力学2021-1-2班,工业工程2021-1-2</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -2380,7 +2368,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>土地管理与信息系统李云岭 (1-9周) 地理信息科学2019-1-3</t>
+          <t>土地管理与信息系统李云岭 (1,3-9周) 地理信息科学2019-1-3</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr"/>
@@ -2417,7 +2405,7 @@
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr">
         <is>
-          <t>材料力学（B）赵增辉 (1-11周) 采矿工程2020-1-2</t>
+          <t>材料力学（B）赵增辉 (1,3-11周) 采矿工程2020-1-2</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -2631,7 +2619,7 @@
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr">
         <is>
-          <t>可编程控制器姜雪,王德堂 (1-8周) 机械电子工程2019-1-3</t>
+          <t>可编程控制器姜雪,王德堂 (1,3-8周) 机械电子工程2019-1-3</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr"/>
@@ -2708,7 +2696,7 @@
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr">
         <is>
-          <t>应用统计学（C）张杰 (1-7周) 物流管理2019-1-2</t>
+          <t>应用统计学（C）张杰 (1,3-7周) 物流管理2019-1-2</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -2805,7 +2793,7 @@
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr">
         <is>
-          <t>金属材料工程专业英语朱慧灵 (1-8周) 金属材料工程2019-4-5</t>
+          <t>金属材料工程专业英语朱慧灵 (1,3-8周) 金属材料工程2019-4-5</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr"/>
@@ -2912,7 +2900,7 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>液压传动与控制杨扬 (1-9周) 机械电子工程2019-5</t>
+          <t>液压传动与控制杨扬 (1,3-9周) 机械电子工程2019-5</t>
         </is>
       </c>
       <c r="J26" t="inlineStr"/>
@@ -2929,7 +2917,7 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>金融专业英语闻德美 (1-9周) 金融学2019-1-2</t>
+          <t>金融专业英语闻德美 (1,3-9周) 金融学2019-1-2</t>
         </is>
       </c>
       <c r="O26" t="inlineStr"/>
@@ -2958,12 +2946,12 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>电子技术仉毅 (1-6,10-13周) 机械电子工程2020-5-6</t>
+          <t>电子技术仉毅 (1,3-6,10-13周) 机械电子工程2020-5-6</t>
         </is>
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>计算方法江守波 (1-6周) 机械电子工程2020-1-2</t>
+          <t>计算方法江守波 (1,3-6周) 机械电子工程2020-1-2</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3008,7 +2996,7 @@
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr">
         <is>
-          <t>化工分离工程高军 (1-9周) 化学工程与工艺2019-1-3</t>
+          <t>化工分离工程高军 (1,3-9周) 化学工程与工艺2019-1-3</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -3026,7 +3014,7 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>应急与危机心理干预于海明 (1-8周) 安全工程（应急管理方向）2019</t>
+          <t>应急与危机心理干预刘震 (3-8周) 安全工程（应急管理方向）2019</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -3055,7 +3043,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>分析化学陈伟 (1-8周) 应用化学2021-2</t>
+          <t>分析化学陈伟 (1,3-8周) 应用化学2021-2</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
@@ -3144,7 +3132,7 @@
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr">
         <is>
-          <t>应急与危机心理干预于海明 (1-8周) 安全工程（应急管理方向）2019</t>
+          <t>应急与危机心理干预刘震 (3-8周) 安全工程（应急管理方向）2019</t>
         </is>
       </c>
       <c r="X28" t="inlineStr">
@@ -3187,11 +3175,7 @@
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -3209,18 +3193,18 @@
       </c>
       <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="Q29" t="inlineStr"/>
       <c r="R29" t="inlineStr">
         <is>
           <t>数字摄影测量原理与方法解斐斐 (1-12周) 遥感科学与技术2019-2-3</t>
         </is>
       </c>
       <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>环境工程CAD张林林 (3,5-6周) 环境工程（海洋环境方向）2019</t>
+        </is>
+      </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr">
@@ -3231,11 +3215,7 @@
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr">
-        <is>
-          <t>机械设计叶铁丽 (1-15周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
       <c r="AC29" t="inlineStr"/>
       <c r="AD29" t="inlineStr"/>
@@ -3271,7 +3251,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr">
         <is>
-          <t>计量经济学（A）陶敏 (1-11周) 国际经济与贸易2019-1-2</t>
+          <t>计量经济学（A）陶敏 (1,3-11周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -3298,12 +3278,12 @@
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr">
         <is>
-          <t>银行结算*邢苗 (1-9周) 投资学2019-1-2</t>
+          <t>银行结算*邢苗 (1,3-9周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>绿色物流杨珍花 (1-8周) 物流管理2020-1-2</t>
+          <t>绿色物流杨珍花 (1,3-8周) 物流管理2020-1-2</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr"/>
@@ -3337,11 +3317,7 @@
       </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>机械原理魏军英 (1,3,5,9,11,13,15单周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr">
         <is>
           <t>矿井通风与安全鹿广利 (1-7,9-10周) 采矿工程（智能开采方向）2019-1-2</t>
@@ -3365,17 +3341,9 @@
           <t>材料分析测试技术汪静 (1-12周) 材料化学2019-1</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>机械CAD丁淑辉 (1-12周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+      <c r="O31" t="inlineStr"/>
       <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>机械原理魏军英 (1,3,5,9,11,13,15单周) 机械电子工程(留学生)2020</t>
-        </is>
-      </c>
+      <c r="Q31" t="inlineStr"/>
       <c r="R31" t="inlineStr"/>
       <c r="S31" t="inlineStr">
         <is>
@@ -3387,19 +3355,15 @@
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
-          <t>电子技术吴清收 (1-6,10-13周) 机械电子工程2020-3-4</t>
+          <t>电子技术吴清收 (1,3-6,10-13周) 机械电子工程2020-3-4</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>材料分析测试技术汪静 (1-12周) 材料化学2019-1</t>
-        </is>
-      </c>
-      <c r="Y31" t="inlineStr">
-        <is>
-          <t>机械CAD丁淑辉 (1-12周) 机械电子工程(留学生)2019</t>
-        </is>
-      </c>
+          <t>材料分析测试技术汪静 (1,3-12周) 材料化学2019-1</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
       <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
@@ -3634,7 +3598,7 @@
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr">
         <is>
-          <t>古生物学李守军 (1-8周) 资源勘查工程2020-1-3</t>
+          <t>古生物学李守军 (1,3-8周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
       <c r="X34" t="inlineStr"/>
@@ -3790,7 +3754,7 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
         <is>
-          <t>古生物学王平丽 (1-8周) 资源勘查工程2020-1-3</t>
+          <t>古生物学王平丽 (2-8周) 资源勘查工程2020-1-3</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
@@ -3866,7 +3830,7 @@
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr">
         <is>
-          <t>概率论与数理统计聂世谦 (1-13周) 金融学2020-1-2班,物流管理2020-1-2</t>
+          <t>概率论与数理统计聂世谦 (1,3-13周) 金融学2020-1-2班,物流管理2020-1-2</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -3946,7 +3910,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>地下工程测量学靳奉祥 (4-15周) 测绘工程2019-1</t>
+          <t>地下工程测量学景冬 (5周) 测绘工程2019-1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4076,7 +4040,7 @@
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr">
         <is>
-          <t>计算方法李贺 (1-6周) 机械电子工程2020-3-4</t>
+          <t>计算方法李贺 (1,3-6周) 机械电子工程2020-3-4</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr"/>
@@ -4113,7 +4077,7 @@
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr">
         <is>
-          <t>管理学(A)姜秀娟 (1-12周) 大数据管理与应用2021-1-2</t>
+          <t>管理学(A)姜秀娟 (1,3-12周) 大数据管理与应用2021-1-2</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -4144,12 +4108,12 @@
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr">
         <is>
-          <t>计量经济学（A）陶敏 (1-11周) 国际经济与贸易2019-1-2</t>
+          <t>计量经济学（A）陶敏 (1,3-11周) 国际经济与贸易2019-1-2</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>计量经济学(B)姜涛 (1-7周) 会计学2019-1-2</t>
+          <t>计量经济学(B)姜涛 (1,3-7周) 会计学2019-1-2</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr"/>
@@ -4187,7 +4151,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>大地测量学基础张燕 (1-10周) 测绘工程2020-4-5</t>
+          <t>大地测量学基础张燕 (1-7,9-10周) 测绘工程2020-4-5</t>
         </is>
       </c>
       <c r="F41" t="inlineStr"/>
@@ -4201,12 +4165,12 @@
           <t>地图学刘文宝 (1-8周) 地理信息科学2021-3</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>GNSS测量与数据处理苏醒 (1-9周) 遥感科学与技术2019-2</t>
-        </is>
-      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>GNSS测量与数据处理刘智敏 (5周) 遥感科学与技术2019-2</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr">
         <is>
           <t>GNSS测量与数据处理刘智敏 (1-9周) 测绘工程2019-1-3</t>
@@ -4234,7 +4198,7 @@
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr">
         <is>
-          <t>GNSS测量与数据处理刘智敏 (1-9周) 测绘工程2019-1-3</t>
+          <t>GNSS测量与数据处理刘智敏 (1,3-6,8-9周) 测绘工程2019-1-3</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr"/>
@@ -4518,7 +4482,7 @@
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr">
         <is>
-          <t>金属热处理工艺学王淑峰 (1-7周) 金属材料工程2019-5</t>
+          <t>金属热处理工艺学王淑峰 (1,3-7周) 金属材料工程2019-5</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -4622,12 +4586,12 @@
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr">
         <is>
-          <t>过程流体机械鲍怀谦,孙静 (1-9周) 过程装备与控制工程2019-1-2</t>
+          <t>过程流体机械鲍怀谦,孙静 (1,3-9周) 过程装备与控制工程2019-1-2</t>
         </is>
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>机械设计(A)高丽 (1-9,14周) 材料成型及控制工程2019-1</t>
+          <t>机械设计(A)高丽 (1,3-9,14周) 材料成型及控制工程2019-1</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -4866,7 +4830,7 @@
       <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr">
         <is>
-          <t>高分子专业外语刘欣 (2-10周) 高分子材料与工程2019-1-2</t>
+          <t>高分子专业外语刘欣 (3-10周) 高分子材料与工程2019-1-2</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr"/>
@@ -4943,7 +4907,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>材料分析测试技术迟静 (1-6周) 金属材料工程2019-3</t>
+          <t>材料分析测试技术迟静 (1,3-6周) 金属材料工程2019-3</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -5001,7 +4965,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>材料腐蚀与防护岳丽杰 (1-9周) 金属材料工程2019-3-4</t>
+          <t>材料腐蚀与防护岳丽杰 (1,3-9周) 金属材料工程2019-3-4</t>
         </is>
       </c>
       <c r="J51" t="inlineStr"/>
@@ -5040,7 +5004,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>材料科学基础（B）丁建旭 (1-8周) 新能源材料与器件2020-1</t>
+          <t>材料科学基础（B）丁建旭 (1,3-8周) 新能源材料与器件2020-1</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr"/>
@@ -5123,7 +5087,11 @@
           <t>误差理论与测量平差基础石波 (1-12周) 测绘工程2020-4-5</t>
         </is>
       </c>
-      <c r="AB52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr">
+        <is>
+          <t>新产品开发流程及就业指导苗永平 (1-8周) 临班199</t>
+        </is>
+      </c>
       <c r="AC52" t="inlineStr"/>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr"/>
@@ -5158,7 +5126,7 @@
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr">
         <is>
-          <t>海洋生物技术李慧娟 (1-8周) 生物工程2019-1-2</t>
+          <t>海洋生物技术李慧娟 (1,3-8周) 生物工程2019-1-2</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
@@ -5198,7 +5166,7 @@
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>煤化工工艺学梁鹏 (1-8周) 化学工程与工艺2019-1-3</t>
+          <t>煤化工工艺学梁鹏 (1-5,7-8周) 化学工程与工艺2019-1-3</t>
         </is>
       </c>
       <c r="U53" t="inlineStr"/>
@@ -5206,7 +5174,7 @@
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr">
         <is>
-          <t>海洋生物技术李慧娟 (1-8周) 生物工程2019-1-2</t>
+          <t>海洋生物技术李慧娟 (1,3-8周) 生物工程2019-1-2</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
@@ -5256,7 +5224,7 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>质量管理与可靠性孙友霞 (2-8周) 工业工程2019-1-2</t>
+          <t>质量管理与可靠性孙友霞 (3-8周) 工业工程2019-1-2</t>
         </is>
       </c>
       <c r="J54" t="inlineStr"/>
@@ -5332,12 +5300,12 @@
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr">
         <is>
-          <t>汽轮机原理李志敏 (1-9周) 能源与动力工程2019-1-3</t>
+          <t>汽轮机原理李志敏 (1,3-9周) 能源与动力工程2019-1-3</t>
         </is>
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>普通化学赵媛媛 (1-8周) 能源与动力工程2019-1-3</t>
+          <t>普通化学赵媛媛 (1,3-8周) 能源与动力工程2019-1-3</t>
         </is>
       </c>
       <c r="J55" t="inlineStr"/>
@@ -5456,7 +5424,7 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>数控技术于涛 (1-7周) 机械设计制造及其自动化2019-3-5</t>
+          <t>数控技术于涛 (1-5,7周) 机械设计制造及其自动化2019-3-5</t>
         </is>
       </c>
       <c r="T56" t="inlineStr"/>
@@ -5542,7 +5510,7 @@
       <c r="W57" t="inlineStr"/>
       <c r="X57" t="inlineStr">
         <is>
-          <t>计量经济学（A）武传宝 (1-10周) 投资学2019-1-2</t>
+          <t>计量经济学（A）武传宝 (1,3-10周) 投资学2019-1-2</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr"/>
@@ -5914,7 +5882,7 @@
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr">
         <is>
-          <t>普通化学（A）高猛 (1-8周) 环境工程2021-3</t>
+          <t>普通化学（A）高猛 (1,3-8周) 环境工程2021-3</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
@@ -6046,7 +6014,7 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>金属材料工程专业英语吴楠楠 (1-8周) 金属材料工程2019-1</t>
+          <t>金属材料工程专业英语吴楠楠 (1,3-8周) 金属材料工程2019-1</t>
         </is>
       </c>
       <c r="J64" t="inlineStr"/>
@@ -6265,7 +6233,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>大地测量学基础郭英 (1-10周) 测绘工程2020-1</t>
+          <t>大地测量学基础郭英 (1-6,8-10周) 测绘工程2020-1</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
@@ -6303,7 +6271,7 @@
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr">
         <is>
-          <t>大地测量学基础郭英 (1-10周) 测绘工程2020-1</t>
+          <t>大地测量学基础郭英 (1-6,8-10周) 测绘工程2020-1</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
@@ -6376,7 +6344,7 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>高分子专业外语刘欣 (2-10周) 高分子材料与工程2019-3-4</t>
+          <t>高分子专业外语程桂青 (4-10周) 高分子材料与工程2019-3-4</t>
         </is>
       </c>
       <c r="T68" t="inlineStr"/>
@@ -6384,7 +6352,7 @@
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr">
         <is>
-          <t>普通化学（A）崔立强 (1-8周) 环境工程2021-1-2</t>
+          <t>普通化学（A）崔立强 (1,3-8周) 环境工程2021-1-2</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
@@ -6534,7 +6502,7 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>化工安全与环保徐冬梅 (1-8周) 化学工程与工艺2019-3</t>
+          <t>化工安全与环保徐冬梅 (1,3-8周) 化学工程与工艺2019-3</t>
         </is>
       </c>
       <c r="T70" t="inlineStr"/>
@@ -6576,7 +6544,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>高分子专业外语刘欣 (2-10周) 高分子材料与工程2019-3-4</t>
+          <t>高分子专业外语程桂青 (4-10周) 高分子材料与工程2019-3-4</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -6589,7 +6557,7 @@
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>大地测量学基础韩晓冬 (1-10周) 测绘工程2020-2</t>
+          <t>大地测量学基础韩晓冬 (1,3-6,8-10周) 测绘工程2020-2</t>
         </is>
       </c>
       <c r="J71" t="inlineStr"/>
@@ -6611,7 +6579,7 @@
       <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr">
         <is>
-          <t>大地测量学基础韩晓冬 (1-10周) 测绘工程2020-2</t>
+          <t>大地测量学基础韩晓冬 (1-6,8-10周) 测绘工程2020-2</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
@@ -6624,7 +6592,7 @@
       <c r="W71" t="inlineStr"/>
       <c r="X71" t="inlineStr">
         <is>
-          <t>微波遥感王志勇 (1-9周) 遥感科学与技术2019-1-3</t>
+          <t>微波遥感王志勇 (1,3-9周) 遥感科学与技术2019-1-3</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr"/>
@@ -6750,12 +6718,12 @@
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="inlineStr">
         <is>
-          <t>有机化学黄小文 (1-16周) 材料化学2020-2</t>
+          <t>有机化学黄小文 (1,3-16周) 材料化学2020-2</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>金属材料工程专业英语白雪 (1-8周) 金属材料工程2019-2</t>
+          <t>金属材料工程专业英语白雪 (1,3-8周) 金属材料工程2019-2</t>
         </is>
       </c>
       <c r="J73" t="inlineStr"/>
@@ -6790,7 +6758,7 @@
       <c r="W73" t="inlineStr"/>
       <c r="X73" t="inlineStr">
         <is>
-          <t>金属热处理工艺学孙金全 (1-7周) 金属材料工程2019-1-2</t>
+          <t>金属热处理工艺学孙金全 (1,3-7周) 金属材料工程2019-1-2</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr"/>
@@ -6835,7 +6803,7 @@
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="inlineStr">
         <is>
-          <t>数据挖掘张福平 (1-9周) 电子商务2019-1</t>
+          <t>数据挖掘张福平 (1,3-9周) 电子商务2019-1</t>
         </is>
       </c>
       <c r="I74" t="inlineStr">
@@ -7041,11 +7009,7 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>汽车理论李玉善 (1-10周) 车辆工程2019-1</t>
-        </is>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
@@ -7073,7 +7037,11 @@
           <t>机械设计基础谢凤芹 (1-12周) 交通运输2020-3</t>
         </is>
       </c>
-      <c r="Y77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>汽车理论李玉善 (5周) 车辆工程2019-1</t>
+        </is>
+      </c>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
@@ -7331,8 +7299,16 @@
         </is>
       </c>
       <c r="V81" t="inlineStr"/>
-      <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>公共艺术甄珍 (5周) 环境设计2019-2</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>公共艺术甄珍 (5周) 环境设计2019-2</t>
+        </is>
+      </c>
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="inlineStr"/>
@@ -7652,7 +7628,7 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>空间大地测量学基础孔巧丽 (1-9周) 测绘工程2019-1-2</t>
+          <t>空间大地测量学基础孔巧丽 (1,3-9周) 测绘工程2019-1-2</t>
         </is>
       </c>
       <c r="J86" t="inlineStr"/>
@@ -7754,12 +7730,12 @@
       <c r="Q87" t="inlineStr"/>
       <c r="R87" t="inlineStr">
         <is>
-          <t>图形创意孙德波 (1-6周) 视觉传达设计2020-2 图形创意刘佳 (1-6周) 视觉传达设计2020-1</t>
+          <t>图形创意孙德波 (1-5周) 视觉传达设计2020-2 图形创意刘佳 (1-5周) 视觉传达设计2020-1</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>图形创意孙德波 (1-6周) 视觉传达设计2020-2 图形创意刘佳 (1-6周) 视觉传达设计2020-1</t>
+          <t>图形创意孙德波 (1-5周) 视觉传达设计2020-2 图形创意刘佳 (1-5周) 视觉传达设计2020-1</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
@@ -7807,7 +7783,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>J14-526室</t>
+          <t>J14-528室</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -7815,44 +7791,28 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>展示设计蔡颖君 (5-7周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>展示设计蔡颖君 (5-7周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>造型材料与色彩工 艺（CMF）张琳 (1-8周) 产品设计2020-1-2</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>造型材料与色彩工 艺（CMF）张琳 (1-8周) 产品设计2020-1-2</t>
+        </is>
+      </c>
       <c r="O88" t="inlineStr"/>
       <c r="P88" t="inlineStr"/>
       <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr">
-        <is>
-          <t>展示设计蔡颖君 (5-7周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="S88" t="inlineStr">
-        <is>
-          <t>展示设计蔡颖君 (5-7周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="T88" t="inlineStr">
-        <is>
-          <t>展示设计蔡颖君 (5-7周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>展示设计蔡颖君 (5-7周) 视觉传达设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
       <c r="X88" t="inlineStr"/>
@@ -7876,7 +7836,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>J14-528室</t>
+          <t>J14-536室</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -7889,24 +7849,32 @@
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr">
-        <is>
-          <t>造型材料与色彩工 艺（CMF）张琳 (1-8周) 产品设计2020-1-2</t>
-        </is>
-      </c>
-      <c r="N89" t="inlineStr">
-        <is>
-          <t>造型材料与色彩工 艺（CMF）张琳 (1-8周) 产品设计2020-1-2</t>
-        </is>
-      </c>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
       <c r="P89" t="inlineStr"/>
       <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
+        </is>
+      </c>
       <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr"/>
-      <c r="V89" t="inlineStr"/>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
+        </is>
+      </c>
       <c r="W89" t="inlineStr"/>
       <c r="X89" t="inlineStr"/>
       <c r="Y89" t="inlineStr"/>
@@ -7929,16 +7897,36 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>J14-536室</t>
+          <t>J14-540室</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>模型设计与制作呙智强 (1-6周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>模型设计与制作呙智强 (1-6周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>模型设计与制作呙智强 (1-6周) 产品设计2019-1-2</t>
+        </is>
+      </c>
       <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>模型设计与制作呙智强 (1-6周) 产品设计2019-1-2</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>模型设计与制作呙智强 (1-6周) 产品设计2019-1-2</t>
+        </is>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
@@ -7947,27 +7935,11 @@
       <c r="O90" t="inlineStr"/>
       <c r="P90" t="inlineStr"/>
       <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr">
-        <is>
-          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
-        </is>
-      </c>
+      <c r="R90" t="inlineStr"/>
       <c r="S90" t="inlineStr"/>
-      <c r="T90" t="inlineStr">
-        <is>
-          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="U90" t="inlineStr">
-        <is>
-          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
-        </is>
-      </c>
-      <c r="V90" t="inlineStr">
-        <is>
-          <t>立体造型基础薄其芳 (4-6,9-11周) 产品设计2021-1-2</t>
-        </is>
-      </c>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr"/>
       <c r="X90" t="inlineStr"/>
       <c r="Y90" t="inlineStr"/>
@@ -7990,43 +7962,51 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>J14-540室</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr"/>
+          <t>J14-542室</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>设计素描包春燕 (1-5周) 产品设计2021-2</t>
+        </is>
+      </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>模型设计与制作呙智强 (1-6周) 产品设计2019-1-2</t>
+          <t>设计素描包春燕 (1-5周) 产品设计2021-2</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>模型设计与制作呙智强 (1-6周) 产品设计2019-1-2</t>
+          <t>设计素描包春燕 (1-5周) 产品设计2021-2</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>模型设计与制作呙智强 (1-6周) 产品设计2019-1-2</t>
+          <t>设计素描包春燕 (1-5周) 产品设计2021-2</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>模型设计与制作呙智强 (1-6周) 产品设计2019-1-2</t>
-        </is>
-      </c>
-      <c r="I91" t="inlineStr">
-        <is>
-          <t>模型设计与制作呙智强 (1-6周) 产品设计2019-1-2</t>
-        </is>
-      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>设计素描包春燕 (1-5周) 产品设计2021-1</t>
+        </is>
+      </c>
       <c r="N91" t="inlineStr"/>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>设计素描包春燕 (1-5周) 产品设计2021-1</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>设计素描包春燕 (1-5周) 产品设计2021-1</t>
+        </is>
+      </c>
       <c r="Q91" t="inlineStr"/>
       <c r="R91" t="inlineStr"/>
       <c r="S91" t="inlineStr"/>
@@ -8035,7 +8015,11 @@
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr"/>
       <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>设计素描包春燕 (1-5周) 产品设计2021-1</t>
+        </is>
+      </c>
       <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="inlineStr"/>
       <c r="AB91" t="inlineStr"/>
@@ -8055,62 +8039,66 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>J14-542室</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>设计素描包春燕 (1-5周) 产品设计2021-2</t>
-        </is>
-      </c>
+          <t>J14-525室</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr">
         <is>
-          <t>设计素描包春燕 (1-5周) 产品设计2021-2</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>设计素描包春燕 (1-5周) 产品设计2021-2</t>
-        </is>
-      </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>设计素描包春燕 (1-5周) 产品设计2021-2</t>
-        </is>
-      </c>
+          <t>形势与政策（4-4）秦晓钟,任成金 (5-8周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
-      <c r="I92" t="inlineStr"/>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr">
-        <is>
-          <t>设计素描包春燕 (1-5周) 产品设计2021-1</t>
-        </is>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>工程测量学刘尚国 (4-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>设计素描包春燕 (1-5周) 产品设计2021-1</t>
-        </is>
-      </c>
-      <c r="P92" t="inlineStr">
-        <is>
-          <t>设计素描包春燕 (1-5周) 产品设计2021-1</t>
-        </is>
-      </c>
+          <t>马克思主义基本原理高明 (1-12周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr"/>
       <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="inlineStr"/>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>电工电子技术（B）郭梅 (1-7,9-10周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr"/>
-      <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
+      <c r="W92" t="inlineStr">
+        <is>
+          <t>电工电子技术（B）郭梅 (1-7,9-10周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
+      <c r="X92" t="inlineStr">
+        <is>
+          <t>工程测量学刘尚国 (4-15周) 采矿工程（宋振骐班）2020</t>
+        </is>
+      </c>
       <c r="Y92" t="inlineStr">
         <is>
-          <t>设计素描包春燕 (1-5周) 产品设计2021-1</t>
+          <t>马克思主义基本原理高明 (1-12周) 采矿工程（宋振骐班）2020</t>
         </is>
       </c>
       <c r="Z92" t="inlineStr"/>
@@ -8132,68 +8120,56 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>J14-525室</t>
+          <t>J14-511室</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>形势与政策（4-4）秦晓钟,任成金 (5-8周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr"/>
+      <c r="D93" t="inlineStr"/>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>GNSS测量与数据处理刘智敏 (1-6,8-9周) 遥感科学与技术2019-1</t>
+        </is>
+      </c>
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="inlineStr">
-        <is>
-          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr">
         <is>
-          <t>工程测量学刘尚国 (4-15周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr">
-        <is>
-          <t>马克思主义基本原理高明 (1-12周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
+          <t>GNSS测量与数据处理刘智敏 (1-6,8-9周) 遥感科学与技术2019-1</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr"/>
       <c r="P93" t="inlineStr"/>
       <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr">
-        <is>
-          <t>电工电子技术（B）郭梅 (1-7,9-10周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
+      <c r="R93" t="inlineStr"/>
       <c r="S93" t="inlineStr">
         <is>
-          <t>材料力学（A）赵增辉 (1-15周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
-      <c r="T93" t="inlineStr"/>
+          <t>大地测量学基础郭金运 (1-10周) 测绘工程2020-3</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>工程测量学常乐 (1-12周) 测绘工程2019-2</t>
+        </is>
+      </c>
       <c r="U93" t="inlineStr"/>
-      <c r="V93" t="inlineStr"/>
-      <c r="W93" t="inlineStr">
-        <is>
-          <t>电工电子技术（B）郭梅 (1-7,9-10周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
-      <c r="X93" t="inlineStr">
-        <is>
-          <t>工程测量学刘尚国 (4-15周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
-      <c r="Y93" t="inlineStr">
-        <is>
-          <t>马克思主义基本原理高明 (1-12周) 采矿工程（宋振骐班）2020</t>
-        </is>
-      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3 地下工程测量学景冬 (4-5周) 测绘工程2019-1</t>
+        </is>
+      </c>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="inlineStr"/>
@@ -8213,59 +8189,55 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>J14-511室</t>
+          <t>J14-521室</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>GNSS测量与数据处理刘智敏 (1-9周) 遥感科学与技术2019-1</t>
+          <t>中国近现代史纲要王兆立 (1-12周) 采矿工程（宋振骐班）2021</t>
         </is>
       </c>
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
-        </is>
-      </c>
+      <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="inlineStr">
         <is>
-          <t>地下工程测量学靳奉祥 (4-15周) 测绘工程2019-1</t>
+          <t>大学物理（B）（2-1）张艳亮 (1-12周) 采矿工程（宋振骐班）2021</t>
         </is>
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>GNSS测量与数据处理刘智敏 (1-9周) 遥感科学与技术2019-1</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr"/>
+          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>中国近现代史纲要王兆立 (1-12周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
       <c r="P94" t="inlineStr"/>
       <c r="Q94" t="inlineStr"/>
       <c r="R94" t="inlineStr"/>
       <c r="S94" t="inlineStr">
         <is>
-          <t>大地测量学基础郭金运 (1-10周) 测绘工程2020-3</t>
-        </is>
-      </c>
-      <c r="T94" t="inlineStr">
-        <is>
-          <t>工程测量学常乐 (1-12周) 测绘工程2019-2</t>
-        </is>
-      </c>
+          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr"/>
-      <c r="V94" t="inlineStr">
-        <is>
-          <t>地下工程测量学景冬 (4-15周) 测绘工程2019-3</t>
-        </is>
-      </c>
+      <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
+      <c r="X94" t="inlineStr">
+        <is>
+          <t>大学物理（B）（2-1）张艳亮 (1-12周) 采矿工程（宋振骐班）2021</t>
+        </is>
+      </c>
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="inlineStr"/>
@@ -8286,53 +8258,49 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>J14-521室</t>
+          <t>J14-509室</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>中国近现代史纲要王兆立 (1-12周) 采矿工程（宋振骐班）2021</t>
+          <t>机械设计基础薛风先 (1-12周) 交通运输2020-4</t>
         </is>
       </c>
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>工程测量学常乐 (1-7,9-12周) 测绘工程2019-2</t>
+        </is>
+      </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-1）张艳亮 (1-12周) 采矿工程（宋振骐班）2021</t>
+          <t>大学英语（A)(2-2)陈昕 (1-16周) 资源勘查工程2021-1</t>
         </is>
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>中国近现代史纲要王兆立 (1-12周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+          <t>大学英语（A)(2-2)陈昕 (1-16周) 电子信息科学与技术2021-1</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr"/>
       <c r="P95" t="inlineStr"/>
       <c r="Q95" t="inlineStr"/>
       <c r="R95" t="inlineStr"/>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>大学英语（A)(2-2)申佃美 (1-16周) 采矿工程（宋振骐班）2021</t>
-        </is>
-      </c>
+      <c r="S95" t="inlineStr"/>
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr"/>
       <c r="W95" t="inlineStr"/>
       <c r="X95" t="inlineStr">
         <is>
-          <t>大学物理（B）（2-1）张艳亮 (1-12周) 采矿工程（宋振骐班）2021</t>
+          <t>机械设计基础薛风先 (1-12周) 交通运输2020-4</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr"/>
@@ -8355,28 +8323,32 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>J14-509室</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
+          <t>J14-332室</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>矿山压力与岩层控制文志杰 (1-5周) 采矿工程2019-3</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>机械设计基础薛风先 (1-12周) 交通运输2020-4</t>
-        </is>
-      </c>
+      <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>工程测量学常乐 (1-12周) 测绘工程2019-2</t>
-        </is>
-      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>弹性力学基础吕显州 (1-8周) 地质工程2020-3</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>矿山压力与岩层控制文志杰 (1-5周) 采矿工程2019-3</t>
+        </is>
+      </c>
       <c r="N96" t="inlineStr"/>
       <c r="O96" t="inlineStr"/>
       <c r="P96" t="inlineStr"/>
@@ -8387,11 +8359,7 @@
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr"/>
       <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr">
-        <is>
-          <t>机械设计基础薛风先 (1-12周) 交通运输2020-4</t>
-        </is>
-      </c>
+      <c r="X96" t="inlineStr"/>
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr"/>
       <c r="AA96" t="inlineStr"/>
@@ -8412,38 +8380,54 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>J14-332室</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>矿山压力与岩层控制文志杰 (1-5周) 采矿工程2019-3</t>
-        </is>
-      </c>
+          <t>J14-519室</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>生化分离工程(双语)李桂江 (1-10周) 生物工程2019-2</t>
+        </is>
+      </c>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr">
         <is>
-          <t>弹性力学基础吕显州 (1-8周) 地质工程2020-3</t>
+          <t>发酵工程孟龙 (1-10周) 生物工程2019-1</t>
         </is>
       </c>
       <c r="H97" t="inlineStr"/>
-      <c r="I97" t="inlineStr"/>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>发酵工程纪蓓 (1-10周) 生物工程2019-2</t>
+        </is>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr">
         <is>
-          <t>矿山压力与岩层控制文志杰 (1-5周) 采矿工程2019-3</t>
+          <t>生化分离工程(双语)李桂江 (1-10周) 生物工程2019-2</t>
         </is>
       </c>
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>生物化学崔志芳 (3-15,17-19周) 生物工程2020-2</t>
+        </is>
+      </c>
       <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="inlineStr"/>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>化工原理（2-1）牛海丽 (2-9周) 生物工程2020-2</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>发酵工程纪蓓 (1-10周) 生物工程2019-2</t>
+        </is>
+      </c>
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr"/>
@@ -8469,54 +8453,30 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>J14-519室</t>
+          <t>J14-515室</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
       <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>生化分离工程(双语)李桂江 (1-10周) 生物工程2019-2</t>
-        </is>
-      </c>
+      <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>发酵工程孟龙 (1-10周) 生物工程2019-1</t>
-        </is>
-      </c>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr">
-        <is>
-          <t>发酵工程纪蓓 (1-10周) 生物工程2019-2</t>
-        </is>
-      </c>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>工程测量学于胜文 (1-6,8-12周) 测绘工程2019-1</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr">
-        <is>
-          <t>生化分离工程(双语)李桂江 (1-10周) 生物工程2019-2</t>
-        </is>
-      </c>
+      <c r="M98" t="inlineStr"/>
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr">
-        <is>
-          <t>生物化学崔志芳 (3-15,17-19周) 生物工程2020-2</t>
-        </is>
-      </c>
+      <c r="P98" t="inlineStr"/>
       <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr">
-        <is>
-          <t>化工原理（2-1）牛海丽 (2-9周) 生物工程2020-2</t>
-        </is>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>发酵工程纪蓓 (1-10周) 生物工程2019-2</t>
-        </is>
-      </c>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr"/>
@@ -8536,55 +8496,6 @@
       <c r="AJ98" t="inlineStr"/>
       <c r="AK98" t="inlineStr"/>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>J14-515室</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="inlineStr"/>
-      <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>工程测量学于胜文 (1-12周) 测绘工程2019-1</t>
-        </is>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="inlineStr"/>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="inlineStr"/>
-      <c r="T99" t="inlineStr"/>
-      <c r="U99" t="inlineStr"/>
-      <c r="V99" t="inlineStr"/>
-      <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr"/>
-      <c r="Z99" t="inlineStr"/>
-      <c r="AA99" t="inlineStr"/>
-      <c r="AB99" t="inlineStr"/>
-      <c r="AC99" t="inlineStr"/>
-      <c r="AD99" t="inlineStr"/>
-      <c r="AE99" t="inlineStr"/>
-      <c r="AF99" t="inlineStr"/>
-      <c r="AG99" t="inlineStr"/>
-      <c r="AH99" t="inlineStr"/>
-      <c r="AI99" t="inlineStr"/>
-      <c r="AJ99" t="inlineStr"/>
-      <c r="AK99" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
